--- a/Code/Results/Cases/Case_3_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.008361877862554</v>
+        <v>1.030526003742771</v>
       </c>
       <c r="D2">
-        <v>1.029197062917558</v>
+        <v>1.040461522314663</v>
       </c>
       <c r="E2">
-        <v>1.013696427741482</v>
+        <v>1.030223834145874</v>
       </c>
       <c r="F2">
-        <v>1.035418579387398</v>
+        <v>1.051579515711766</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.050772761160573</v>
+        <v>1.040015485696387</v>
       </c>
       <c r="J2">
-        <v>1.030295330993051</v>
+        <v>1.035666763105735</v>
       </c>
       <c r="K2">
-        <v>1.040264087079023</v>
+        <v>1.043243804420683</v>
       </c>
       <c r="L2">
-        <v>1.024968191183205</v>
+        <v>1.033035466514235</v>
       </c>
       <c r="M2">
-        <v>1.046405581642426</v>
+        <v>1.054330625800739</v>
       </c>
       <c r="N2">
-        <v>1.014014933438518</v>
+        <v>1.015893170983726</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.011972310176477</v>
+        <v>1.031292591898147</v>
       </c>
       <c r="D3">
-        <v>1.031934043899986</v>
+        <v>1.041066172200911</v>
       </c>
       <c r="E3">
-        <v>1.016519902440469</v>
+        <v>1.030870285676733</v>
       </c>
       <c r="F3">
-        <v>1.038825614350033</v>
+        <v>1.052355819993733</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.051934716604276</v>
+        <v>1.040209368943919</v>
       </c>
       <c r="J3">
-        <v>1.032141834832789</v>
+        <v>1.036075775591138</v>
       </c>
       <c r="K3">
-        <v>1.042173998326804</v>
+        <v>1.043659424005461</v>
       </c>
       <c r="L3">
-        <v>1.026945682961284</v>
+        <v>1.033490663163847</v>
       </c>
       <c r="M3">
-        <v>1.048984693604318</v>
+        <v>1.054919698084545</v>
       </c>
       <c r="N3">
-        <v>1.014631216716535</v>
+        <v>1.016029173046155</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.014267528519474</v>
+        <v>1.031789277581261</v>
       </c>
       <c r="D4">
-        <v>1.033676498226605</v>
+        <v>1.041457958450094</v>
       </c>
       <c r="E4">
-        <v>1.018320471937556</v>
+        <v>1.031289534618939</v>
       </c>
       <c r="F4">
-        <v>1.040995824949779</v>
+        <v>1.052859063102972</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.05266408034416</v>
+        <v>1.040333837975304</v>
       </c>
       <c r="J4">
-        <v>1.033313179245375</v>
+        <v>1.036340398604276</v>
       </c>
       <c r="K4">
-        <v>1.043384781860592</v>
+        <v>1.04392819843977</v>
       </c>
       <c r="L4">
-        <v>1.028202701168468</v>
+        <v>1.033785470258638</v>
       </c>
       <c r="M4">
-        <v>1.050623417045564</v>
+        <v>1.055301127508581</v>
       </c>
       <c r="N4">
-        <v>1.015022116469676</v>
+        <v>1.016117143178089</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.015222907454989</v>
+        <v>1.031998238399093</v>
       </c>
       <c r="D5">
-        <v>1.034402356336058</v>
+        <v>1.041622792084157</v>
       </c>
       <c r="E5">
-        <v>1.019071276164144</v>
+        <v>1.031466012708246</v>
       </c>
       <c r="F5">
-        <v>1.041900172859837</v>
+        <v>1.053070845121285</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.052965408839277</v>
+        <v>1.040385927707989</v>
       </c>
       <c r="J5">
-        <v>1.033800121732466</v>
+        <v>1.036451636310581</v>
       </c>
       <c r="K5">
-        <v>1.043887925908362</v>
+        <v>1.044041151668846</v>
       </c>
       <c r="L5">
-        <v>1.028725880231286</v>
+        <v>1.033909469003809</v>
       </c>
       <c r="M5">
-        <v>1.051305292551463</v>
+        <v>1.055461540927354</v>
       </c>
       <c r="N5">
-        <v>1.015184606184476</v>
+        <v>1.016154117617067</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.015382768769164</v>
+        <v>1.032033332824297</v>
       </c>
       <c r="D6">
-        <v>1.034523844717923</v>
+        <v>1.041650475749431</v>
       </c>
       <c r="E6">
-        <v>1.019196983289471</v>
+        <v>1.0314956573415</v>
       </c>
       <c r="F6">
-        <v>1.042051553448397</v>
+        <v>1.053106417009967</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05301569521452</v>
+        <v>1.040394659876452</v>
       </c>
       <c r="J6">
-        <v>1.033881563150228</v>
+        <v>1.036470312997076</v>
       </c>
       <c r="K6">
-        <v>1.043972065490748</v>
+        <v>1.044060114652788</v>
       </c>
       <c r="L6">
-        <v>1.028813418793955</v>
+        <v>1.033930292522694</v>
       </c>
       <c r="M6">
-        <v>1.051419374229168</v>
+        <v>1.055488478540388</v>
       </c>
       <c r="N6">
-        <v>1.015211781923947</v>
+        <v>1.016160325293198</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.014280331428115</v>
+        <v>1.031792069122595</v>
       </c>
       <c r="D7">
-        <v>1.033686223168564</v>
+        <v>1.041460160469806</v>
       </c>
       <c r="E7">
-        <v>1.018330528188745</v>
+        <v>1.031291891842922</v>
       </c>
       <c r="F7">
-        <v>1.041007940073684</v>
+        <v>1.052861892088415</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.052668127402388</v>
+        <v>1.040334534933427</v>
       </c>
       <c r="J7">
-        <v>1.033319707203719</v>
+        <v>1.036341885008163</v>
       </c>
       <c r="K7">
-        <v>1.043391527790196</v>
+        <v>1.043929707883512</v>
       </c>
       <c r="L7">
-        <v>1.028209712459795</v>
+        <v>1.03378712689478</v>
       </c>
       <c r="M7">
-        <v>1.050632555754996</v>
+        <v>1.055303270725141</v>
       </c>
       <c r="N7">
-        <v>1.015024294859415</v>
+        <v>1.016117637265185</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.009590695083616</v>
+        <v>1.03078493967525</v>
       </c>
       <c r="D8">
-        <v>1.030128053341762</v>
+        <v>1.04066575414587</v>
       </c>
       <c r="E8">
-        <v>1.014656204504866</v>
+        <v>1.030442107251185</v>
       </c>
       <c r="F8">
-        <v>1.036577253835546</v>
+        <v>1.051841679086738</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.051170163631256</v>
+        <v>1.040081213143788</v>
       </c>
       <c r="J8">
-        <v>1.03092430293393</v>
+        <v>1.035804997323672</v>
       </c>
       <c r="K8">
-        <v>1.0409148181924</v>
+        <v>1.043384297119188</v>
       </c>
       <c r="L8">
-        <v>1.025641241480508</v>
+        <v>1.033189246724411</v>
       </c>
       <c r="M8">
-        <v>1.047283548879258</v>
+        <v>1.054529650553775</v>
       </c>
       <c r="N8">
-        <v>1.014224865510254</v>
+        <v>1.015939139920757</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.00100009345503</v>
+        <v>1.029015325954225</v>
       </c>
       <c r="D9">
-        <v>1.023631602827692</v>
+        <v>1.039270110066017</v>
       </c>
       <c r="E9">
-        <v>1.00797152083492</v>
+        <v>1.028952053425679</v>
       </c>
       <c r="F9">
-        <v>1.028496322871108</v>
+        <v>1.050051094303477</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.048353993107407</v>
+        <v>1.03962731316851</v>
       </c>
       <c r="J9">
-        <v>1.026517585206039</v>
+        <v>1.034858720197221</v>
       </c>
       <c r="K9">
-        <v>1.036352565533778</v>
+        <v>1.042422057096048</v>
       </c>
       <c r="L9">
-        <v>1.02093657620497</v>
+        <v>1.032137795234912</v>
       </c>
       <c r="M9">
-        <v>1.041143387059854</v>
+        <v>1.053168506745643</v>
       </c>
       <c r="N9">
-        <v>1.012753908232132</v>
+        <v>1.015624378325523</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9950341115855184</v>
+        <v>1.027839110940941</v>
       </c>
       <c r="D10">
-        <v>1.019136946379243</v>
+        <v>1.038342621703502</v>
       </c>
       <c r="E10">
-        <v>1.003362433487571</v>
+        <v>1.027963760953374</v>
       </c>
       <c r="F10">
-        <v>1.022910141407253</v>
+        <v>1.048862316757851</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.046351588628633</v>
+        <v>1.039319714812407</v>
       </c>
       <c r="J10">
-        <v>1.023446148529634</v>
+        <v>1.034227805426091</v>
       </c>
       <c r="K10">
-        <v>1.033169065126416</v>
+        <v>1.041779871193852</v>
       </c>
       <c r="L10">
-        <v>1.0176712423926</v>
+        <v>1.031438319940078</v>
       </c>
       <c r="M10">
-        <v>1.036877710347568</v>
+        <v>1.052262580585823</v>
       </c>
       <c r="N10">
-        <v>1.011728572536764</v>
+        <v>1.015414413224361</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9923895664649576</v>
+        <v>1.027330657622345</v>
       </c>
       <c r="D11">
-        <v>1.017149192676874</v>
+        <v>1.037941731223319</v>
       </c>
       <c r="E11">
-        <v>1.001327755748833</v>
+        <v>1.027537048592156</v>
       </c>
       <c r="F11">
-        <v>1.020440543983853</v>
+        <v>1.048348763777582</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.045453404080635</v>
+        <v>1.039185347200179</v>
       </c>
       <c r="J11">
-        <v>1.022082411774502</v>
+        <v>1.033954614161404</v>
       </c>
       <c r="K11">
-        <v>1.031754788290962</v>
+        <v>1.041501651352399</v>
       </c>
       <c r="L11">
-        <v>1.016224675905223</v>
+        <v>1.031135811890018</v>
       </c>
       <c r="M11">
-        <v>1.034987009187135</v>
+        <v>1.051870684095863</v>
       </c>
       <c r="N11">
-        <v>1.01127331639049</v>
+        <v>1.015323472573339</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9913976538626327</v>
+        <v>1.027141925908321</v>
       </c>
       <c r="D12">
-        <v>1.016404369110822</v>
+        <v>1.037792932542967</v>
       </c>
       <c r="E12">
-        <v>1.000565897392398</v>
+        <v>1.027378734681419</v>
       </c>
       <c r="F12">
-        <v>1.01951528241505</v>
+        <v>1.048158189213696</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.045114967052488</v>
+        <v>1.039135261391278</v>
       </c>
       <c r="J12">
-        <v>1.021570595778904</v>
+        <v>1.033853139971928</v>
       </c>
       <c r="K12">
-        <v>1.031223894068598</v>
+        <v>1.041398287169909</v>
       </c>
       <c r="L12">
-        <v>1.015682263726222</v>
+        <v>1.031023503928236</v>
       </c>
       <c r="M12">
-        <v>1.034277913522801</v>
+        <v>1.051725174576079</v>
       </c>
       <c r="N12">
-        <v>1.011102458581269</v>
+        <v>1.015289689987763</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9916108642390526</v>
+        <v>1.027182403565472</v>
       </c>
       <c r="D13">
-        <v>1.016564433715392</v>
+        <v>1.037824845359911</v>
       </c>
       <c r="E13">
-        <v>1.000729598139177</v>
+        <v>1.027412685100272</v>
       </c>
       <c r="F13">
-        <v>1.019714118917777</v>
+        <v>1.04819905983787</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.045187782902737</v>
+        <v>1.039146012903262</v>
       </c>
       <c r="J13">
-        <v>1.02168062335506</v>
+        <v>1.033874906453436</v>
       </c>
       <c r="K13">
-        <v>1.031338027849997</v>
+        <v>1.041420460062402</v>
       </c>
       <c r="L13">
-        <v>1.01579884655771</v>
+        <v>1.031047591763916</v>
       </c>
       <c r="M13">
-        <v>1.034430329042921</v>
+        <v>1.051756384194477</v>
       </c>
       <c r="N13">
-        <v>1.011139188610821</v>
+        <v>1.01529693660313</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9923077731723212</v>
+        <v>1.027315054326795</v>
       </c>
       <c r="D14">
-        <v>1.017087759034216</v>
+        <v>1.037929429224594</v>
       </c>
       <c r="E14">
-        <v>1.001264905946436</v>
+        <v>1.027523958507526</v>
       </c>
       <c r="F14">
-        <v>1.020364225516285</v>
+        <v>1.048333007101332</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.045425527721575</v>
+        <v>1.03918121067045</v>
       </c>
       <c r="J14">
-        <v>1.02204021339812</v>
+        <v>1.033946226240694</v>
       </c>
       <c r="K14">
-        <v>1.031711019147098</v>
+        <v>1.041493107655698</v>
       </c>
       <c r="L14">
-        <v>1.016179944955651</v>
+        <v>1.031126527307449</v>
       </c>
       <c r="M14">
-        <v>1.034928535427592</v>
+        <v>1.051858655033753</v>
       </c>
       <c r="N14">
-        <v>1.011259229403893</v>
+        <v>1.015320680156326</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9927358755740079</v>
+        <v>1.027396802188113</v>
       </c>
       <c r="D15">
-        <v>1.017409330458976</v>
+        <v>1.037993881417266</v>
       </c>
       <c r="E15">
-        <v>1.001593912519893</v>
+        <v>1.027592542442077</v>
       </c>
       <c r="F15">
-        <v>1.020763715274777</v>
+        <v>1.048415560599519</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.045571368467391</v>
+        <v>1.039202873922424</v>
       </c>
       <c r="J15">
-        <v>1.022261065450087</v>
+        <v>1.033990168916512</v>
       </c>
       <c r="K15">
-        <v>1.031940087610108</v>
+        <v>1.041537865503632</v>
       </c>
       <c r="L15">
-        <v>1.016414071632381</v>
+        <v>1.031175169698641</v>
       </c>
       <c r="M15">
-        <v>1.03523458740722</v>
+        <v>1.051921675252494</v>
       </c>
       <c r="N15">
-        <v>1.011332956014345</v>
+        <v>1.015335308936338</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9952082966142677</v>
+        <v>1.027872873505037</v>
       </c>
       <c r="D16">
-        <v>1.019267971454211</v>
+        <v>1.038369242785352</v>
       </c>
       <c r="E16">
-        <v>1.003496628105293</v>
+        <v>1.027992106427434</v>
       </c>
       <c r="F16">
-        <v>1.023072944445878</v>
+        <v>1.048896424959662</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.046410530999319</v>
+        <v>1.039328607659621</v>
       </c>
       <c r="J16">
-        <v>1.023535927652182</v>
+        <v>1.034245936325626</v>
       </c>
       <c r="K16">
-        <v>1.033262155741441</v>
+        <v>1.041798332711231</v>
       </c>
       <c r="L16">
-        <v>1.017766542506088</v>
+        <v>1.031458404313657</v>
       </c>
       <c r="M16">
-        <v>1.037002249623435</v>
+        <v>1.052288597536424</v>
       </c>
       <c r="N16">
-        <v>1.011758543631115</v>
+        <v>1.015420448183578</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9967425034606119</v>
+        <v>1.028171730895274</v>
       </c>
       <c r="D17">
-        <v>1.020422559496681</v>
+        <v>1.03860489072881</v>
       </c>
       <c r="E17">
-        <v>1.004679566131569</v>
+        <v>1.028243071719569</v>
       </c>
       <c r="F17">
-        <v>1.024507656906533</v>
+        <v>1.049198380146764</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.046928488464339</v>
+        <v>1.039407163039834</v>
       </c>
       <c r="J17">
-        <v>1.024326440577445</v>
+        <v>1.034406373156153</v>
       </c>
       <c r="K17">
-        <v>1.034081738237996</v>
+        <v>1.041961678017052</v>
       </c>
       <c r="L17">
-        <v>1.018606040100625</v>
+        <v>1.031636169857384</v>
       </c>
       <c r="M17">
-        <v>1.038099203068725</v>
+        <v>1.052518860047138</v>
       </c>
       <c r="N17">
-        <v>1.012022441836294</v>
+        <v>1.015473847599361</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9976315009162774</v>
+        <v>1.028346131771393</v>
       </c>
       <c r="D18">
-        <v>1.021092020408992</v>
+        <v>1.038742409339359</v>
       </c>
       <c r="E18">
-        <v>1.005365816374422</v>
+        <v>1.028389573566965</v>
       </c>
       <c r="F18">
-        <v>1.025339626771277</v>
+        <v>1.049374620699578</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.047227610126815</v>
+        <v>1.039452869584856</v>
       </c>
       <c r="J18">
-        <v>1.024784286882649</v>
+        <v>1.034499953056808</v>
       </c>
       <c r="K18">
-        <v>1.034556346016004</v>
+        <v>1.042056940086017</v>
       </c>
       <c r="L18">
-        <v>1.019092567198904</v>
+        <v>1.031739893029465</v>
       </c>
       <c r="M18">
-        <v>1.038734844823692</v>
+        <v>1.052653204380466</v>
       </c>
       <c r="N18">
-        <v>1.012175285211872</v>
+        <v>1.015504992190751</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9979336409277567</v>
+        <v>1.028405611883164</v>
       </c>
       <c r="D19">
-        <v>1.021319619545109</v>
+        <v>1.038789311300015</v>
       </c>
       <c r="E19">
-        <v>1.00559918318432</v>
+        <v>1.028439546870015</v>
       </c>
       <c r="F19">
-        <v>1.025622489771481</v>
+        <v>1.049434733644826</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.047329098982138</v>
+        <v>1.039468435059842</v>
       </c>
       <c r="J19">
-        <v>1.02493985551287</v>
+        <v>1.034531861311257</v>
       </c>
       <c r="K19">
-        <v>1.034717596992634</v>
+        <v>1.042089419488625</v>
       </c>
       <c r="L19">
-        <v>1.019257933681304</v>
+        <v>1.031775265932773</v>
       </c>
       <c r="M19">
-        <v>1.038950878453698</v>
+        <v>1.05269901839378</v>
       </c>
       <c r="N19">
-        <v>1.012227218785373</v>
+        <v>1.015515611272408</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9965785086217029</v>
+        <v>1.028139657786847</v>
       </c>
       <c r="D20">
-        <v>1.020299097624773</v>
+        <v>1.038579600767437</v>
       </c>
       <c r="E20">
-        <v>1.004553036375337</v>
+        <v>1.028216133294798</v>
       </c>
       <c r="F20">
-        <v>1.024354232197581</v>
+        <v>1.049165971280785</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.046873227178799</v>
+        <v>1.039398746522107</v>
       </c>
       <c r="J20">
-        <v>1.024241963148754</v>
+        <v>1.034389159812249</v>
       </c>
       <c r="K20">
-        <v>1.033994162036825</v>
+        <v>1.041944154099303</v>
       </c>
       <c r="L20">
-        <v>1.018516295814729</v>
+        <v>1.031617093610194</v>
       </c>
       <c r="M20">
-        <v>1.037981945770597</v>
+        <v>1.052494151310773</v>
       </c>
       <c r="N20">
-        <v>1.011994240607356</v>
+        <v>1.015468118590555</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9921028195800388</v>
+        <v>1.027275988366052</v>
       </c>
       <c r="D21">
-        <v>1.016933833755858</v>
+        <v>1.03789862883343</v>
       </c>
       <c r="E21">
-        <v>1.001107441218787</v>
+        <v>1.027491186109934</v>
       </c>
       <c r="F21">
-        <v>1.0201730072443</v>
+        <v>1.048293557931887</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.045355651728895</v>
+        <v>1.039170850648027</v>
       </c>
       <c r="J21">
-        <v>1.021934469948165</v>
+        <v>1.033925224296618</v>
       </c>
       <c r="K21">
-        <v>1.031601337812735</v>
+        <v>1.041471715316683</v>
       </c>
       <c r="L21">
-        <v>1.016067863117687</v>
+        <v>1.03110328117183</v>
       </c>
       <c r="M21">
-        <v>1.03478201598678</v>
+        <v>1.051828537196649</v>
       </c>
       <c r="N21">
-        <v>1.011223929345426</v>
+        <v>1.015313688355568</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9892329509634331</v>
+        <v>1.026733721048811</v>
       </c>
       <c r="D22">
-        <v>1.014780318773901</v>
+        <v>1.03747111155207</v>
       </c>
       <c r="E22">
-        <v>0.9989057037701461</v>
+        <v>1.027036460535244</v>
       </c>
       <c r="F22">
-        <v>1.017497978316549</v>
+        <v>1.047746090446902</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.044373583257795</v>
+        <v>1.039026547400745</v>
       </c>
       <c r="J22">
-        <v>1.020453104336347</v>
+        <v>1.033633537298318</v>
       </c>
       <c r="K22">
-        <v>1.030064553024705</v>
+        <v>1.041174553837747</v>
       </c>
       <c r="L22">
-        <v>1.014498870097022</v>
+        <v>1.030780557409425</v>
       </c>
       <c r="M22">
-        <v>1.032730587968362</v>
+        <v>1.051410377332244</v>
       </c>
       <c r="N22">
-        <v>1.01072941527912</v>
+        <v>1.015216573785673</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9907597573776927</v>
+        <v>1.027021114908679</v>
       </c>
       <c r="D23">
-        <v>1.015925590011342</v>
+        <v>1.037697685521284</v>
       </c>
       <c r="E23">
-        <v>1.000076321872462</v>
+        <v>1.027277416349744</v>
       </c>
       <c r="F23">
-        <v>1.018920545077197</v>
+        <v>1.048036212712924</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.044896888519344</v>
+        <v>1.03910314128974</v>
       </c>
       <c r="J23">
-        <v>1.021241365692661</v>
+        <v>1.033788164913452</v>
       </c>
       <c r="K23">
-        <v>1.030882361594634</v>
+        <v>1.041332095693078</v>
       </c>
       <c r="L23">
-        <v>1.01533349052028</v>
+        <v>1.030951607551904</v>
       </c>
       <c r="M23">
-        <v>1.033821920130287</v>
+        <v>1.051632019112197</v>
       </c>
       <c r="N23">
-        <v>1.010992553513143</v>
+        <v>1.01526805761592</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9966526289702095</v>
+        <v>1.028154149989576</v>
       </c>
       <c r="D24">
-        <v>1.020354897045968</v>
+        <v>1.03859102799899</v>
       </c>
       <c r="E24">
-        <v>1.00461022125882</v>
+        <v>1.028228305244961</v>
       </c>
       <c r="F24">
-        <v>1.024423573257984</v>
+        <v>1.049180615096649</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.046898206618303</v>
+        <v>1.039402549934932</v>
       </c>
       <c r="J24">
-        <v>1.02428014488188</v>
+        <v>1.034396937782181</v>
       </c>
       <c r="K24">
-        <v>1.034033744572187</v>
+        <v>1.041952072448372</v>
       </c>
       <c r="L24">
-        <v>1.01855685707763</v>
+        <v>1.031625713235567</v>
       </c>
       <c r="M24">
-        <v>1.038034942235222</v>
+        <v>1.052505316013846</v>
       </c>
       <c r="N24">
-        <v>1.012006986874336</v>
+        <v>1.015470707290463</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.003261615632324</v>
+        <v>1.029472200125375</v>
       </c>
       <c r="D25">
-        <v>1.025339072319333</v>
+        <v>1.039630407637652</v>
       </c>
       <c r="E25">
-        <v>1.009725704632825</v>
+        <v>1.029336381875763</v>
       </c>
       <c r="F25">
-        <v>1.030619348394187</v>
+        <v>1.050513141275645</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.049103587515155</v>
+        <v>1.039745542149039</v>
       </c>
       <c r="J25">
-        <v>1.027679709772849</v>
+        <v>1.035103372497636</v>
       </c>
       <c r="K25">
-        <v>1.037556365983549</v>
+        <v>1.042670947497102</v>
       </c>
       <c r="L25">
-        <v>1.02217489459725</v>
+        <v>1.032409363994744</v>
       </c>
       <c r="M25">
-        <v>1.042760231180496</v>
+        <v>1.053520138081361</v>
       </c>
       <c r="N25">
-        <v>1.013141847257346</v>
+        <v>1.015705775669382</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_213/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_3_213/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.030526003742771</v>
+        <v>1.008361877862553</v>
       </c>
       <c r="D2">
-        <v>1.040461522314663</v>
+        <v>1.029197062917557</v>
       </c>
       <c r="E2">
-        <v>1.030223834145874</v>
+        <v>1.013696427741482</v>
       </c>
       <c r="F2">
-        <v>1.051579515711766</v>
+        <v>1.035418579387397</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040015485696387</v>
+        <v>1.050772761160573</v>
       </c>
       <c r="J2">
-        <v>1.035666763105735</v>
+        <v>1.030295330993051</v>
       </c>
       <c r="K2">
-        <v>1.043243804420683</v>
+        <v>1.040264087079022</v>
       </c>
       <c r="L2">
-        <v>1.033035466514235</v>
+        <v>1.024968191183204</v>
       </c>
       <c r="M2">
-        <v>1.054330625800739</v>
+        <v>1.046405581642426</v>
       </c>
       <c r="N2">
-        <v>1.015893170983726</v>
+        <v>1.014014933438518</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.031292591898147</v>
+        <v>1.011972310176477</v>
       </c>
       <c r="D3">
-        <v>1.041066172200911</v>
+        <v>1.031934043899987</v>
       </c>
       <c r="E3">
-        <v>1.030870285676733</v>
+        <v>1.016519902440469</v>
       </c>
       <c r="F3">
-        <v>1.052355819993733</v>
+        <v>1.038825614350034</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.040209368943919</v>
+        <v>1.051934716604276</v>
       </c>
       <c r="J3">
-        <v>1.036075775591138</v>
+        <v>1.032141834832789</v>
       </c>
       <c r="K3">
-        <v>1.043659424005461</v>
+        <v>1.042173998326805</v>
       </c>
       <c r="L3">
-        <v>1.033490663163847</v>
+        <v>1.026945682961284</v>
       </c>
       <c r="M3">
-        <v>1.054919698084545</v>
+        <v>1.048984693604318</v>
       </c>
       <c r="N3">
-        <v>1.016029173046155</v>
+        <v>1.014631216716536</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.031789277581261</v>
+        <v>1.014267528519474</v>
       </c>
       <c r="D4">
-        <v>1.041457958450094</v>
+        <v>1.033676498226605</v>
       </c>
       <c r="E4">
-        <v>1.031289534618939</v>
+        <v>1.018320471937555</v>
       </c>
       <c r="F4">
-        <v>1.052859063102972</v>
+        <v>1.040995824949778</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.040333837975304</v>
+        <v>1.05266408034416</v>
       </c>
       <c r="J4">
-        <v>1.036340398604276</v>
+        <v>1.033313179245374</v>
       </c>
       <c r="K4">
-        <v>1.04392819843977</v>
+        <v>1.043384781860592</v>
       </c>
       <c r="L4">
-        <v>1.033785470258638</v>
+        <v>1.028202701168467</v>
       </c>
       <c r="M4">
-        <v>1.055301127508581</v>
+        <v>1.050623417045564</v>
       </c>
       <c r="N4">
-        <v>1.016117143178089</v>
+        <v>1.015022116469676</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031998238399093</v>
+        <v>1.015222907454989</v>
       </c>
       <c r="D5">
-        <v>1.041622792084157</v>
+        <v>1.034402356336058</v>
       </c>
       <c r="E5">
-        <v>1.031466012708246</v>
+        <v>1.019071276164144</v>
       </c>
       <c r="F5">
-        <v>1.053070845121285</v>
+        <v>1.041900172859837</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.040385927707989</v>
+        <v>1.052965408839278</v>
       </c>
       <c r="J5">
-        <v>1.036451636310581</v>
+        <v>1.033800121732467</v>
       </c>
       <c r="K5">
-        <v>1.044041151668846</v>
+        <v>1.043887925908363</v>
       </c>
       <c r="L5">
-        <v>1.033909469003809</v>
+        <v>1.028725880231286</v>
       </c>
       <c r="M5">
-        <v>1.055461540927354</v>
+        <v>1.051305292551463</v>
       </c>
       <c r="N5">
-        <v>1.016154117617067</v>
+        <v>1.015184606184476</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.032033332824297</v>
+        <v>1.015382768769164</v>
       </c>
       <c r="D6">
-        <v>1.041650475749431</v>
+        <v>1.034523844717922</v>
       </c>
       <c r="E6">
-        <v>1.0314956573415</v>
+        <v>1.01919698328947</v>
       </c>
       <c r="F6">
-        <v>1.053106417009967</v>
+        <v>1.042051553448397</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.040394659876452</v>
+        <v>1.05301569521452</v>
       </c>
       <c r="J6">
-        <v>1.036470312997076</v>
+        <v>1.033881563150228</v>
       </c>
       <c r="K6">
-        <v>1.044060114652788</v>
+        <v>1.043972065490748</v>
       </c>
       <c r="L6">
-        <v>1.033930292522694</v>
+        <v>1.028813418793955</v>
       </c>
       <c r="M6">
-        <v>1.055488478540388</v>
+        <v>1.051419374229167</v>
       </c>
       <c r="N6">
-        <v>1.016160325293198</v>
+        <v>1.015211781923947</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.031792069122595</v>
+        <v>1.014280331428115</v>
       </c>
       <c r="D7">
-        <v>1.041460160469806</v>
+        <v>1.033686223168564</v>
       </c>
       <c r="E7">
-        <v>1.031291891842922</v>
+        <v>1.018330528188745</v>
       </c>
       <c r="F7">
-        <v>1.052861892088415</v>
+        <v>1.041007940073684</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.040334534933427</v>
+        <v>1.052668127402388</v>
       </c>
       <c r="J7">
-        <v>1.036341885008163</v>
+        <v>1.033319707203719</v>
       </c>
       <c r="K7">
-        <v>1.043929707883512</v>
+        <v>1.043391527790196</v>
       </c>
       <c r="L7">
-        <v>1.03378712689478</v>
+        <v>1.028209712459795</v>
       </c>
       <c r="M7">
-        <v>1.055303270725141</v>
+        <v>1.050632555754995</v>
       </c>
       <c r="N7">
-        <v>1.016117637265185</v>
+        <v>1.015024294859415</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.03078493967525</v>
+        <v>1.009590695083616</v>
       </c>
       <c r="D8">
-        <v>1.04066575414587</v>
+        <v>1.030128053341762</v>
       </c>
       <c r="E8">
-        <v>1.030442107251185</v>
+        <v>1.014656204504866</v>
       </c>
       <c r="F8">
-        <v>1.051841679086738</v>
+        <v>1.036577253835546</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040081213143788</v>
+        <v>1.051170163631256</v>
       </c>
       <c r="J8">
-        <v>1.035804997323672</v>
+        <v>1.03092430293393</v>
       </c>
       <c r="K8">
-        <v>1.043384297119188</v>
+        <v>1.040914818192401</v>
       </c>
       <c r="L8">
-        <v>1.033189246724411</v>
+        <v>1.025641241480507</v>
       </c>
       <c r="M8">
-        <v>1.054529650553775</v>
+        <v>1.047283548879258</v>
       </c>
       <c r="N8">
-        <v>1.015939139920757</v>
+        <v>1.014224865510254</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.029015325954225</v>
+        <v>1.00100009345503</v>
       </c>
       <c r="D9">
-        <v>1.039270110066017</v>
+        <v>1.023631602827693</v>
       </c>
       <c r="E9">
-        <v>1.028952053425679</v>
+        <v>1.00797152083492</v>
       </c>
       <c r="F9">
-        <v>1.050051094303477</v>
+        <v>1.028496322871109</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03962731316851</v>
+        <v>1.048353993107407</v>
       </c>
       <c r="J9">
-        <v>1.034858720197221</v>
+        <v>1.026517585206039</v>
       </c>
       <c r="K9">
-        <v>1.042422057096048</v>
+        <v>1.036352565533779</v>
       </c>
       <c r="L9">
-        <v>1.032137795234912</v>
+        <v>1.02093657620497</v>
       </c>
       <c r="M9">
-        <v>1.053168506745643</v>
+        <v>1.041143387059855</v>
       </c>
       <c r="N9">
-        <v>1.015624378325523</v>
+        <v>1.012753908232132</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.027839110940941</v>
+        <v>0.9950341115855182</v>
       </c>
       <c r="D10">
-        <v>1.038342621703502</v>
+        <v>1.019136946379243</v>
       </c>
       <c r="E10">
-        <v>1.027963760953374</v>
+        <v>1.00336243348757</v>
       </c>
       <c r="F10">
-        <v>1.048862316757851</v>
+        <v>1.022910141407253</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.039319714812407</v>
+        <v>1.046351588628633</v>
       </c>
       <c r="J10">
-        <v>1.034227805426091</v>
+        <v>1.023446148529633</v>
       </c>
       <c r="K10">
-        <v>1.041779871193852</v>
+        <v>1.033169065126416</v>
       </c>
       <c r="L10">
-        <v>1.031438319940078</v>
+        <v>1.0176712423926</v>
       </c>
       <c r="M10">
-        <v>1.052262580585823</v>
+        <v>1.036877710347568</v>
       </c>
       <c r="N10">
-        <v>1.015414413224361</v>
+        <v>1.011728572536764</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.027330657622345</v>
+        <v>0.9923895664649574</v>
       </c>
       <c r="D11">
-        <v>1.037941731223319</v>
+        <v>1.017149192676873</v>
       </c>
       <c r="E11">
-        <v>1.027537048592156</v>
+        <v>1.001327755748832</v>
       </c>
       <c r="F11">
-        <v>1.048348763777582</v>
+        <v>1.020440543983852</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.039185347200179</v>
+        <v>1.045453404080635</v>
       </c>
       <c r="J11">
-        <v>1.033954614161404</v>
+        <v>1.022082411774502</v>
       </c>
       <c r="K11">
-        <v>1.041501651352399</v>
+        <v>1.031754788290962</v>
       </c>
       <c r="L11">
-        <v>1.031135811890018</v>
+        <v>1.016224675905223</v>
       </c>
       <c r="M11">
-        <v>1.051870684095863</v>
+        <v>1.034987009187134</v>
       </c>
       <c r="N11">
-        <v>1.015323472573339</v>
+        <v>1.01127331639049</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.027141925908321</v>
+        <v>0.9913976538626323</v>
       </c>
       <c r="D12">
-        <v>1.037792932542967</v>
+        <v>1.016404369110822</v>
       </c>
       <c r="E12">
-        <v>1.027378734681419</v>
+        <v>1.000565897392397</v>
       </c>
       <c r="F12">
-        <v>1.048158189213696</v>
+        <v>1.01951528241505</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.039135261391278</v>
+        <v>1.045114967052488</v>
       </c>
       <c r="J12">
-        <v>1.033853139971928</v>
+        <v>1.021570595778904</v>
       </c>
       <c r="K12">
-        <v>1.041398287169909</v>
+        <v>1.031223894068598</v>
       </c>
       <c r="L12">
-        <v>1.031023503928236</v>
+        <v>1.015682263726221</v>
       </c>
       <c r="M12">
-        <v>1.051725174576079</v>
+        <v>1.034277913522801</v>
       </c>
       <c r="N12">
-        <v>1.015289689987763</v>
+        <v>1.011102458581269</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.027182403565472</v>
+        <v>0.9916108642390525</v>
       </c>
       <c r="D13">
-        <v>1.037824845359911</v>
+        <v>1.016564433715392</v>
       </c>
       <c r="E13">
-        <v>1.027412685100272</v>
+        <v>1.000729598139177</v>
       </c>
       <c r="F13">
-        <v>1.04819905983787</v>
+        <v>1.019714118917777</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.039146012903262</v>
+        <v>1.045187782902737</v>
       </c>
       <c r="J13">
-        <v>1.033874906453436</v>
+        <v>1.02168062335506</v>
       </c>
       <c r="K13">
-        <v>1.041420460062402</v>
+        <v>1.031338027849997</v>
       </c>
       <c r="L13">
-        <v>1.031047591763916</v>
+        <v>1.01579884655771</v>
       </c>
       <c r="M13">
-        <v>1.051756384194477</v>
+        <v>1.034430329042921</v>
       </c>
       <c r="N13">
-        <v>1.01529693660313</v>
+        <v>1.011139188610821</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.027315054326795</v>
+        <v>0.99230777317232</v>
       </c>
       <c r="D14">
-        <v>1.037929429224594</v>
+        <v>1.017087759034214</v>
       </c>
       <c r="E14">
-        <v>1.027523958507526</v>
+        <v>1.001264905946434</v>
       </c>
       <c r="F14">
-        <v>1.048333007101332</v>
+        <v>1.020364225516284</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.03918121067045</v>
+        <v>1.045425527721575</v>
       </c>
       <c r="J14">
-        <v>1.033946226240694</v>
+        <v>1.022040213398118</v>
       </c>
       <c r="K14">
-        <v>1.041493107655698</v>
+        <v>1.031711019147097</v>
       </c>
       <c r="L14">
-        <v>1.031126527307449</v>
+        <v>1.016179944955649</v>
       </c>
       <c r="M14">
-        <v>1.051858655033753</v>
+        <v>1.03492853542759</v>
       </c>
       <c r="N14">
-        <v>1.015320680156326</v>
+        <v>1.011259229403892</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.027396802188113</v>
+        <v>0.9927358755740072</v>
       </c>
       <c r="D15">
-        <v>1.037993881417266</v>
+        <v>1.017409330458976</v>
       </c>
       <c r="E15">
-        <v>1.027592542442077</v>
+        <v>1.001593912519892</v>
       </c>
       <c r="F15">
-        <v>1.048415560599519</v>
+        <v>1.020763715274777</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.039202873922424</v>
+        <v>1.045571368467391</v>
       </c>
       <c r="J15">
-        <v>1.033990168916512</v>
+        <v>1.022261065450086</v>
       </c>
       <c r="K15">
-        <v>1.041537865503632</v>
+        <v>1.031940087610108</v>
       </c>
       <c r="L15">
-        <v>1.031175169698641</v>
+        <v>1.016414071632381</v>
       </c>
       <c r="M15">
-        <v>1.051921675252494</v>
+        <v>1.03523458740722</v>
       </c>
       <c r="N15">
-        <v>1.015335308936338</v>
+        <v>1.011332956014345</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.027872873505037</v>
+        <v>0.9952082966142672</v>
       </c>
       <c r="D16">
-        <v>1.038369242785352</v>
+        <v>1.01926797145421</v>
       </c>
       <c r="E16">
-        <v>1.027992106427434</v>
+        <v>1.003496628105292</v>
       </c>
       <c r="F16">
-        <v>1.048896424959662</v>
+        <v>1.023072944445877</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.039328607659621</v>
+        <v>1.046410530999318</v>
       </c>
       <c r="J16">
-        <v>1.034245936325626</v>
+        <v>1.023535927652182</v>
       </c>
       <c r="K16">
-        <v>1.041798332711231</v>
+        <v>1.03326215574144</v>
       </c>
       <c r="L16">
-        <v>1.031458404313657</v>
+        <v>1.017766542506088</v>
       </c>
       <c r="M16">
-        <v>1.052288597536424</v>
+        <v>1.037002249623434</v>
       </c>
       <c r="N16">
-        <v>1.015420448183578</v>
+        <v>1.011758543631115</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.028171730895274</v>
+        <v>0.9967425034606112</v>
       </c>
       <c r="D17">
-        <v>1.03860489072881</v>
+        <v>1.02042255949668</v>
       </c>
       <c r="E17">
-        <v>1.028243071719569</v>
+        <v>1.004679566131568</v>
       </c>
       <c r="F17">
-        <v>1.049198380146764</v>
+        <v>1.024507656906532</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.039407163039834</v>
+        <v>1.046928488464339</v>
       </c>
       <c r="J17">
-        <v>1.034406373156153</v>
+        <v>1.024326440577444</v>
       </c>
       <c r="K17">
-        <v>1.041961678017052</v>
+        <v>1.034081738237995</v>
       </c>
       <c r="L17">
-        <v>1.031636169857384</v>
+        <v>1.018606040100625</v>
       </c>
       <c r="M17">
-        <v>1.052518860047138</v>
+        <v>1.038099203068723</v>
       </c>
       <c r="N17">
-        <v>1.015473847599361</v>
+        <v>1.012022441836294</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.028346131771393</v>
+        <v>0.9976315009162778</v>
       </c>
       <c r="D18">
-        <v>1.038742409339359</v>
+        <v>1.021092020408993</v>
       </c>
       <c r="E18">
-        <v>1.028389573566965</v>
+        <v>1.005365816374423</v>
       </c>
       <c r="F18">
-        <v>1.049374620699578</v>
+        <v>1.025339626771278</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.039452869584856</v>
+        <v>1.047227610126815</v>
       </c>
       <c r="J18">
-        <v>1.034499953056808</v>
+        <v>1.02478428688265</v>
       </c>
       <c r="K18">
-        <v>1.042056940086017</v>
+        <v>1.034556346016005</v>
       </c>
       <c r="L18">
-        <v>1.031739893029465</v>
+        <v>1.019092567198904</v>
       </c>
       <c r="M18">
-        <v>1.052653204380466</v>
+        <v>1.038734844823693</v>
       </c>
       <c r="N18">
-        <v>1.015504992190751</v>
+        <v>1.012175285211872</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.028405611883164</v>
+        <v>0.9979336409277566</v>
       </c>
       <c r="D19">
-        <v>1.038789311300015</v>
+        <v>1.021319619545109</v>
       </c>
       <c r="E19">
-        <v>1.028439546870015</v>
+        <v>1.00559918318432</v>
       </c>
       <c r="F19">
-        <v>1.049434733644826</v>
+        <v>1.025622489771482</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.039468435059842</v>
+        <v>1.047329098982138</v>
       </c>
       <c r="J19">
-        <v>1.034531861311257</v>
+        <v>1.02493985551287</v>
       </c>
       <c r="K19">
-        <v>1.042089419488625</v>
+        <v>1.034717596992634</v>
       </c>
       <c r="L19">
-        <v>1.031775265932773</v>
+        <v>1.019257933681304</v>
       </c>
       <c r="M19">
-        <v>1.05269901839378</v>
+        <v>1.038950878453698</v>
       </c>
       <c r="N19">
-        <v>1.015515611272408</v>
+        <v>1.012227218785373</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.028139657786847</v>
+        <v>0.9965785086217037</v>
       </c>
       <c r="D20">
-        <v>1.038579600767437</v>
+        <v>1.020299097624774</v>
       </c>
       <c r="E20">
-        <v>1.028216133294798</v>
+        <v>1.004553036375338</v>
       </c>
       <c r="F20">
-        <v>1.049165971280785</v>
+        <v>1.024354232197582</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.039398746522107</v>
+        <v>1.0468732271788</v>
       </c>
       <c r="J20">
-        <v>1.034389159812249</v>
+        <v>1.024241963148755</v>
       </c>
       <c r="K20">
-        <v>1.041944154099303</v>
+        <v>1.033994162036826</v>
       </c>
       <c r="L20">
-        <v>1.031617093610194</v>
+        <v>1.018516295814729</v>
       </c>
       <c r="M20">
-        <v>1.052494151310773</v>
+        <v>1.037981945770597</v>
       </c>
       <c r="N20">
-        <v>1.015468118590555</v>
+        <v>1.011994240607356</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.027275988366052</v>
+        <v>0.9921028195800388</v>
       </c>
       <c r="D21">
-        <v>1.03789862883343</v>
+        <v>1.016933833755858</v>
       </c>
       <c r="E21">
-        <v>1.027491186109934</v>
+        <v>1.001107441218787</v>
       </c>
       <c r="F21">
-        <v>1.048293557931887</v>
+        <v>1.020173007244299</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.039170850648027</v>
+        <v>1.045355651728894</v>
       </c>
       <c r="J21">
-        <v>1.033925224296618</v>
+        <v>1.021934469948165</v>
       </c>
       <c r="K21">
-        <v>1.041471715316683</v>
+        <v>1.031601337812736</v>
       </c>
       <c r="L21">
-        <v>1.03110328117183</v>
+        <v>1.016067863117686</v>
       </c>
       <c r="M21">
-        <v>1.051828537196649</v>
+        <v>1.03478201598678</v>
       </c>
       <c r="N21">
-        <v>1.015313688355568</v>
+        <v>1.011223929345426</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.026733721048811</v>
+        <v>0.9892329509634328</v>
       </c>
       <c r="D22">
-        <v>1.03747111155207</v>
+        <v>1.0147803187739</v>
       </c>
       <c r="E22">
-        <v>1.027036460535244</v>
+        <v>0.9989057037701455</v>
       </c>
       <c r="F22">
-        <v>1.047746090446902</v>
+        <v>1.017497978316548</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.039026547400745</v>
+        <v>1.044373583257795</v>
       </c>
       <c r="J22">
-        <v>1.033633537298318</v>
+        <v>1.020453104336347</v>
       </c>
       <c r="K22">
-        <v>1.041174553837747</v>
+        <v>1.030064553024704</v>
       </c>
       <c r="L22">
-        <v>1.030780557409425</v>
+        <v>1.014498870097021</v>
       </c>
       <c r="M22">
-        <v>1.051410377332244</v>
+        <v>1.032730587968362</v>
       </c>
       <c r="N22">
-        <v>1.015216573785673</v>
+        <v>1.01072941527912</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.027021114908679</v>
+        <v>0.9907597573776925</v>
       </c>
       <c r="D23">
-        <v>1.037697685521284</v>
+        <v>1.015925590011341</v>
       </c>
       <c r="E23">
-        <v>1.027277416349744</v>
+        <v>1.000076321872462</v>
       </c>
       <c r="F23">
-        <v>1.048036212712924</v>
+        <v>1.018920545077197</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.03910314128974</v>
+        <v>1.044896888519343</v>
       </c>
       <c r="J23">
-        <v>1.033788164913452</v>
+        <v>1.021241365692661</v>
       </c>
       <c r="K23">
-        <v>1.041332095693078</v>
+        <v>1.030882361594633</v>
       </c>
       <c r="L23">
-        <v>1.030951607551904</v>
+        <v>1.01533349052028</v>
       </c>
       <c r="M23">
-        <v>1.051632019112197</v>
+        <v>1.033821920130287</v>
       </c>
       <c r="N23">
-        <v>1.01526805761592</v>
+        <v>1.010992553513143</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.028154149989576</v>
+        <v>0.9966526289702095</v>
       </c>
       <c r="D24">
-        <v>1.03859102799899</v>
+        <v>1.020354897045968</v>
       </c>
       <c r="E24">
-        <v>1.028228305244961</v>
+        <v>1.00461022125882</v>
       </c>
       <c r="F24">
-        <v>1.049180615096649</v>
+        <v>1.024423573257983</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.039402549934932</v>
+        <v>1.046898206618303</v>
       </c>
       <c r="J24">
-        <v>1.034396937782181</v>
+        <v>1.02428014488188</v>
       </c>
       <c r="K24">
-        <v>1.041952072448372</v>
+        <v>1.034033744572187</v>
       </c>
       <c r="L24">
-        <v>1.031625713235567</v>
+        <v>1.01855685707763</v>
       </c>
       <c r="M24">
-        <v>1.052505316013846</v>
+        <v>1.038034942235221</v>
       </c>
       <c r="N24">
-        <v>1.015470707290463</v>
+        <v>1.012006986874336</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.029472200125375</v>
+        <v>1.003261615632323</v>
       </c>
       <c r="D25">
-        <v>1.039630407637652</v>
+        <v>1.025339072319332</v>
       </c>
       <c r="E25">
-        <v>1.029336381875763</v>
+        <v>1.009725704632825</v>
       </c>
       <c r="F25">
-        <v>1.050513141275645</v>
+        <v>1.030619348394186</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039745542149039</v>
+        <v>1.049103587515154</v>
       </c>
       <c r="J25">
-        <v>1.035103372497636</v>
+        <v>1.027679709772848</v>
       </c>
       <c r="K25">
-        <v>1.042670947497102</v>
+        <v>1.037556365983548</v>
       </c>
       <c r="L25">
-        <v>1.032409363994744</v>
+        <v>1.022174894597249</v>
       </c>
       <c r="M25">
-        <v>1.053520138081361</v>
+        <v>1.042760231180495</v>
       </c>
       <c r="N25">
-        <v>1.015705775669382</v>
+        <v>1.013141847257345</v>
       </c>
     </row>
   </sheetData>
